--- a/Statystyki_2018/Template/oopc_.xlsx
+++ b/Statystyki_2018/Template/oopc_.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>lp</t>
   </si>
@@ -424,16 +424,7 @@
     <t>Razem</t>
   </si>
   <si>
-    <t>14807</t>
-  </si>
-  <si>
     <t>0</t>
-  </si>
-  <si>
-    <t>12046,3</t>
-  </si>
-  <si>
-    <t>16046,3</t>
   </si>
 </sst>
 </file>
@@ -2580,10 +2571,10 @@
         <v>61</v>
       </c>
       <c r="C11" s="37">
-        <v>6444</v>
+        <v>0</v>
       </c>
       <c r="D11" s="37">
-        <v>6444</v>
+        <v>0</v>
       </c>
       <c r="E11" s="37">
         <v>0</v>
@@ -2595,13 +2586,13 @@
         <v>0</v>
       </c>
       <c r="H11" s="37">
-        <v>6023.15</v>
+        <v>0</v>
       </c>
       <c r="I11" s="37">
         <v>0</v>
       </c>
       <c r="J11" s="37">
-        <v>8023.15</v>
+        <v>0</v>
       </c>
       <c r="K11" s="37">
         <v>0</v>
@@ -2879,10 +2870,10 @@
         <v>62</v>
       </c>
       <c r="C12" s="37">
-        <v>8363</v>
+        <v>0</v>
       </c>
       <c r="D12" s="37">
-        <v>8363</v>
+        <v>0</v>
       </c>
       <c r="E12" s="37">
         <v>0</v>
@@ -2894,13 +2885,13 @@
         <v>0</v>
       </c>
       <c r="H12" s="37">
-        <v>6023.15</v>
+        <v>0</v>
       </c>
       <c r="I12" s="37">
         <v>0</v>
       </c>
       <c r="J12" s="37">
-        <v>8023.15</v>
+        <v>0</v>
       </c>
       <c r="K12" s="37">
         <v>0</v>
@@ -3480,289 +3471,289 @@
         <v>65</v>
       </c>
       <c r="E14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H14" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="J14" s="37" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="K14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="O14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="P14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="R14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="S14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="U14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="V14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="W14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="X14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Y14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Z14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AA14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AB14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AC14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AD14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AE14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AF14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AG14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AH14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AI14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AJ14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AK14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AL14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AM14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AN14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AO14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AP14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AQ14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AR14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AS14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AT14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AU14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AV14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AW14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AX14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AY14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="AZ14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BA14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BB14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BC14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BD14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BE14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BF14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BG14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BH14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BI14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BJ14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BK14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BL14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BM14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BN14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BO14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BP14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BQ14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BR14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BS14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BT14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BU14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BV14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BW14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BX14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BY14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="BZ14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CA14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CB14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CC14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CD14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CE14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CF14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CG14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CH14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CI14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CJ14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CK14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CL14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CM14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CN14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CO14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CP14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CQ14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CR14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CS14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CT14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="CU14" s="37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
